--- a/TestData/Litigation_Case_Upload_Format (2).xlsx
+++ b/TestData/Litigation_Case_Upload_Format (2).xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Court Cases" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
     <sheet name="Case Orders" sheetId="3" r:id="rId3"/>
     <sheet name="Case Payments" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="89">
   <si>
     <t>Type of Case
 (Defendant / Plaintiff)</t>
@@ -136,10 +136,19 @@
     <t xml:space="preserve">Financial Year </t>
   </si>
   <si>
-    <t>Defendant</t>
+    <t>Abc 2024</t>
   </si>
   <si>
     <t>Admin</t>
+  </si>
+  <si>
+    <t>abc@abc.com</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>ABC and Advocates</t>
   </si>
   <si>
     <t>Hearing</t>
@@ -161,6 +170,12 @@
     <t>Remarks</t>
   </si>
   <si>
+    <t>Append() will handle the int on its own. It will convert it to a string and append it.</t>
+  </si>
+  <si>
+    <t>The example has a final delimiter on the end. This is not present in code that uses string.Join. It can be inconvenient.</t>
+  </si>
+  <si>
     <t>Order Type
 (Interim / Judgement / Other)</t>
   </si>
@@ -174,7 +189,7 @@
     <t>Remark</t>
   </si>
   <si>
-    <t>Judgement</t>
+    <t>into a single string. The String Builder's Append method receives a variety of types. We can simply pass it the int.</t>
   </si>
   <si>
     <t>Invoice No</t>
@@ -209,9 +224,6 @@
   </si>
   <si>
     <t>Payment Date    (dd-MMM-yyyy)</t>
-  </si>
-  <si>
-    <t>Miscellaneous</t>
   </si>
   <si>
     <t>Order Date               (dd-MMM-yyyy)</t>
@@ -243,62 +255,58 @@
 (dd-MMM-yyyy)</t>
   </si>
   <si>
-    <t xml:space="preserve"> 17-apr-2023</t>
-  </si>
-  <si>
-    <t>Case for Tax</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  Delhi Value Added Tax Act, 2004 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 17-Jun-2023</t>
-  </si>
-  <si>
-    <t>MrSawant,</t>
-  </si>
-  <si>
-    <t>2nd  Magistrate Court,Alipore</t>
-  </si>
-  <si>
-    <t>A pvt ltd</t>
-  </si>
-  <si>
-    <t xml:space="preserve">	
-performer@avantis.info</t>
-  </si>
-  <si>
-    <t>High</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>25-03-2023</t>
-  </si>
-  <si>
-    <t>2023-2024</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 12-apr-2023</t>
-  </si>
-  <si>
-    <t>Hearingof 26-Feb-2023</t>
-  </si>
-  <si>
-    <t xml:space="preserve">		</t>
-  </si>
-  <si>
-    <t>12-feb-2023</t>
-  </si>
-  <si>
-    <t>Order date 28JUN2023</t>
-  </si>
-  <si>
-    <t>Order date 28042023</t>
-  </si>
-  <si>
-    <t>18-feb-2023</t>
+    <t>#$56sd</t>
+  </si>
+  <si>
+    <t>#$5s</t>
+  </si>
+  <si>
+    <t>abc</t>
+  </si>
+  <si>
+    <t>10-Dec-202</t>
+  </si>
+  <si>
+    <t>7#500</t>
+  </si>
+  <si>
+    <t>$%34f</t>
+  </si>
+  <si>
+    <t>%^453</t>
+  </si>
+  <si>
+    <t>fgv</t>
+  </si>
+  <si>
+    <t>12000#</t>
+  </si>
+  <si>
+    <t>10-Jul-202</t>
+  </si>
+  <si>
+    <t>#$345</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>#$1</t>
+  </si>
+  <si>
+    <t>#$23</t>
+  </si>
+  <si>
+    <t>#$2</t>
+  </si>
+  <si>
+    <t>gds</t>
+  </si>
+  <si>
+    <t>2020-202</t>
+  </si>
+  <si>
+    <t>7/10/201</t>
   </si>
 </sst>
 </file>
@@ -363,11 +371,12 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Trebuchet MS"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="8">
@@ -451,8 +460,9 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -483,6 +493,12 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -495,15 +511,28 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -518,6 +547,12 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -546,41 +581,15 @@
     <xf numFmtId="49" fontId="1" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="15" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -963,8 +972,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM2"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="AA1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AJ2" sqref="AJ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1010,7 +1019,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
@@ -1055,7 +1064,7 @@
         <v>14</v>
       </c>
       <c r="Q1" s="5" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>15</v>
@@ -1100,10 +1109,10 @@
         <v>28</v>
       </c>
       <c r="AF1" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AG1" s="4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="AH1" s="1" t="s">
         <v>29</v>
@@ -1112,7 +1121,7 @@
         <v>30</v>
       </c>
       <c r="AJ1" s="4" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="AK1" s="6" t="s">
         <v>31</v>
@@ -1124,92 +1133,92 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10" t="str">
+        <f>I2</f>
+        <v>test</v>
+      </c>
+      <c r="F2" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="33">
-        <v>634684</v>
-      </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="F2" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="G2" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="H2" s="33" t="s">
+      <c r="G2" s="10"/>
+      <c r="H2" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="N2" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="S2" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
-      <c r="V2" s="33"/>
-      <c r="W2" s="33"/>
-      <c r="X2" s="33"/>
-      <c r="Y2" s="33"/>
-      <c r="Z2" s="33"/>
-      <c r="AA2" s="33"/>
-      <c r="AB2" s="33"/>
-      <c r="AC2" s="33"/>
-      <c r="AD2" s="33"/>
-      <c r="AE2" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="AF2" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="AG2" s="33"/>
-      <c r="AH2" s="33" t="s">
+      <c r="I2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J2" s="10"/>
+      <c r="K2" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="10"/>
+      <c r="M2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="N2" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="O2" s="10"/>
+      <c r="P2" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q2" s="10"/>
+      <c r="R2" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="AI2" s="33" t="s">
+      <c r="S2" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AJ2" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="AK2" s="33" t="s">
+      <c r="T2" s="10"/>
+      <c r="U2" s="10"/>
+      <c r="V2" s="10"/>
+      <c r="W2" s="10"/>
+      <c r="X2" s="10"/>
+      <c r="Y2" s="10"/>
+      <c r="Z2" s="10"/>
+      <c r="AA2" s="10"/>
+      <c r="AB2" s="10"/>
+      <c r="AC2" s="10"/>
+      <c r="AD2" s="10"/>
+      <c r="AE2" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="AL2" s="33">
-        <v>4000</v>
-      </c>
-      <c r="AM2" s="33" t="s">
-        <v>78</v>
+      <c r="AF2" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG2" s="10"/>
+      <c r="AH2" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="AI2" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ2" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK2" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL2" s="10"/>
+      <c r="AM2" s="10" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="R2" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
@@ -1217,19 +1226,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.140625" style="26" customWidth="1"/>
-    <col min="3" max="3" width="17.5703125" style="11" customWidth="1"/>
+    <col min="2" max="2" width="17.140625" style="35" customWidth="1"/>
+    <col min="3" max="3" width="17.5703125" style="13" customWidth="1"/>
     <col min="4" max="4" width="19.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="14" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" customWidth="1"/>
     <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="35.85546875" customWidth="1"/>
@@ -1237,57 +1246,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="B1" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E1" s="19" t="s">
-        <v>51</v>
-      </c>
-      <c r="F1" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G1" s="20" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="21" t="s">
-        <v>41</v>
+      <c r="A1" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="H1" s="28" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="77.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="36">
-        <v>634684</v>
-      </c>
-      <c r="B2" s="37" t="s">
+      <c r="A2" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="31" t="s">
+        <v>73</v>
+      </c>
+      <c r="E2" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="C2" s="38">
-        <v>142435</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="G2" s="39" t="s">
-        <v>81</v>
-      </c>
-      <c r="H2" s="24"/>
+      <c r="F2" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="30">
+        <v>43096</v>
+      </c>
+      <c r="H2" s="33" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C3"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="25"/>
-      <c r="H3" s="11"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="13"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C4"/>
+      <c r="E4" s="35"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="34"/>
+      <c r="H4" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1300,57 +1322,59 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
     <col min="2" max="2" width="19.7109375" customWidth="1"/>
-    <col min="3" max="3" width="18.85546875" style="26" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="38.85546875" style="11" customWidth="1"/>
-    <col min="6" max="6" width="38.5703125" style="11" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" style="35" customWidth="1"/>
+    <col min="4" max="4" width="34.5703125" style="13" customWidth="1"/>
+    <col min="5" max="5" width="38.85546875" style="13" customWidth="1"/>
+    <col min="6" max="6" width="38.5703125" style="13" customWidth="1"/>
     <col min="7" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="13" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="15" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>59</v>
+        <v>47</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>63</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="19" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A2" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="F2" s="16" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>634684</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="D2" s="41" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="41" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="41"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -1362,8 +1386,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1371,7 +1395,7 @@
     <col min="1" max="2" width="23.5703125" customWidth="1"/>
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="40.140625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="26" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" style="35" customWidth="1"/>
     <col min="6" max="6" width="16.42578125" customWidth="1"/>
     <col min="7" max="7" width="33.5703125" customWidth="1"/>
     <col min="8" max="8" width="13.85546875" customWidth="1"/>
@@ -1379,57 +1403,55 @@
     <col min="10" max="1026" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="31" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
-        <v>47</v>
-      </c>
-      <c r="B1" s="28" t="s">
-        <v>56</v>
+    <row r="1" spans="1:9" s="40" customFormat="1" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="E1" s="29" t="s">
-        <v>57</v>
+        <v>53</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>62</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>45</v>
+        <v>58</v>
+      </c>
+      <c r="G1" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="I1" s="37" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="27">
-        <v>634684</v>
-      </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="16">
-        <v>45654</v>
-      </c>
-      <c r="D2" s="16" t="s">
-        <v>58</v>
+      <c r="A2" s="20" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="D2" s="21" t="s">
+        <v>73</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F2" s="42">
-        <v>457657</v>
-      </c>
-      <c r="G2" s="43">
-        <v>2000</v>
-      </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
+        <v>74</v>
+      </c>
+      <c r="F2" s="22" t="s">
+        <v>75</v>
+      </c>
+      <c r="G2" s="23"/>
+      <c r="H2" s="36"/>
+      <c r="I2" s="36"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
